--- a/doc/02_外部設計/02_DB定義書_B2 (1).xlsx
+++ b/doc/02_外部設計/02_DB定義書_B2 (1).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\B2\doc\02_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CF08E6-9165-4612-9105-7D09B81085A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D266F4-4333-47CC-A42B-E00AFD4DCD5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="834" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="129">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -336,10 +336,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>assigned_date</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>支出の種類</t>
     <rPh sb="0" eb="2">
       <t>シシュツ</t>
@@ -800,6 +796,21 @@
   </si>
   <si>
     <t>item_finish</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>assigned_day</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Wednesdayみたいに記述</t>
+    <rPh sb="13" eb="15">
+      <t>キジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>String</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1233,7 +1244,7 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -1256,7 +1267,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -1268,7 +1279,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -1314,7 +1325,7 @@
         <v>23</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>30</v>
@@ -1329,7 +1340,7 @@
         <v>22</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>30</v>
@@ -1344,7 +1355,7 @@
         <v>25</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>30</v>
@@ -1359,7 +1370,7 @@
         <v>24</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>30</v>
@@ -1371,10 +1382,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>30</v>
@@ -1386,10 +1397,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>30</v>
@@ -1401,10 +1412,10 @@
         <v>7</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>30</v>
@@ -1419,7 +1430,7 @@
         <v>26</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>30</v>
@@ -1434,7 +1445,7 @@
         <v>27</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>30</v>
@@ -1449,7 +1460,7 @@
         <v>28</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>30</v>
@@ -1464,7 +1475,7 @@
         <v>29</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>30</v>
@@ -1697,7 +1708,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -1723,7 +1734,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -1771,20 +1782,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -1802,10 +1813,10 @@
         <v>36</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -1813,7 +1824,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -1825,13 +1836,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -1849,13 +1860,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1873,13 +1884,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -2212,7 +2223,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -2238,7 +2249,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -2286,20 +2297,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -2317,10 +2328,10 @@
         <v>36</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -2328,7 +2339,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L11" t="e">
         <f>#REF!&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -2340,13 +2351,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" t="s">
         <v>71</v>
       </c>
-      <c r="C12" t="s">
-        <v>72</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -2364,13 +2375,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -2388,13 +2399,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -2727,7 +2738,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -2753,7 +2764,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -2801,20 +2812,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -2832,10 +2843,10 @@
         <v>36</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -2843,7 +2854,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -2855,13 +2866,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -2879,13 +2890,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>43</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -2903,13 +2914,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="D14" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -3232,7 +3243,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -3244,7 +3255,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -3270,7 +3281,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -3318,20 +3329,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -3349,19 +3360,19 @@
         <v>21</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L11" t="e">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -3373,19 +3384,19 @@
         <v>3</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" t="s">
         <v>74</v>
       </c>
-      <c r="C12" t="s">
-        <v>75</v>
-      </c>
       <c r="D12" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -3405,7 +3416,7 @@
         <v>32</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -3746,7 +3757,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -3758,7 +3769,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -3784,7 +3795,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -3832,20 +3843,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -3866,13 +3877,13 @@
         <v>33</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -3892,13 +3903,13 @@
         <v>37</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -3912,19 +3923,19 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -3941,10 +3952,10 @@
         <v>36</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -4241,8 +4252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68AE223B-8379-452F-BCAE-5405FEABFBDB}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4266,7 +4277,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -4278,7 +4289,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -4304,7 +4315,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -4352,20 +4363,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -4383,17 +4394,17 @@
         <v>36</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -4408,10 +4419,10 @@
         <v>36</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -4419,7 +4430,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -4434,20 +4445,22 @@
         <v>46</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>47</v>
+        <v>126</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>127</v>
+      </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>assigned_date DATE ,</v>
+        <v>assigned_day String ,</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -4455,13 +4468,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -4481,13 +4494,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>126</v>
-      </c>
       <c r="D15" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -4804,7 +4817,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -4830,7 +4843,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -4878,20 +4891,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -4912,7 +4925,7 @@
         <v>42</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -4936,7 +4949,7 @@
         <v>43</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -4960,7 +4973,7 @@
         <v>44</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -4986,7 +4999,7 @@
         <v>45</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -5009,10 +5022,10 @@
         <v>36</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -5020,7 +5033,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
@@ -5319,7 +5332,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -5331,7 +5344,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -5345,7 +5358,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -5357,7 +5370,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -5405,20 +5418,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -5433,13 +5446,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -5447,7 +5460,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -5462,10 +5475,10 @@
         <v>36</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -5473,7 +5486,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -5485,13 +5498,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -5511,13 +5524,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -5537,13 +5550,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="D15" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -5858,7 +5871,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -5872,7 +5885,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -5884,7 +5897,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -5932,20 +5945,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -5960,13 +5973,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -5984,13 +5997,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -6008,13 +6021,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>43</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -6032,13 +6045,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -6370,7 +6383,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -6384,7 +6397,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -6396,7 +6409,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -6444,20 +6457,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -6475,10 +6488,10 @@
         <v>36</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -6486,7 +6499,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L11" t="str">
         <f>C12&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -6501,10 +6514,10 @@
         <v>36</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -6512,7 +6525,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L12" t="e">
         <f>C13&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -6524,13 +6537,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -6540,7 +6553,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L13" t="e">
         <f>#REF!&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -6885,7 +6898,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -6911,7 +6924,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -6959,20 +6972,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -6987,13 +7000,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -7011,13 +7024,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -7027,7 +7040,7 @@
         <v>3</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L12" t="e">
         <f>#REF!&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -7042,10 +7055,10 @@
         <v>36</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -7053,7 +7066,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L13" t="str">
         <f>C12&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -7068,10 +7081,10 @@
         <v>36</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -7079,7 +7092,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L14" t="e">
         <f>C14&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
